--- a/mongodb/xls/diseases.xlsx
+++ b/mongodb/xls/diseases.xlsx
@@ -22,70 +22,70 @@
     <t>질병명_영어</t>
   </si>
   <si>
-    <t>relevant_ingredient_effects</t>
+    <t>질병식품관계</t>
   </si>
   <si>
-    <t>relevant_nutrient_effects</t>
+    <t>질병영양소관계</t>
   </si>
   <si>
-    <t>(식품명_1,3), (식품명_1,1), (식품명_1,-1)</t>
+    <t>(식품명_1:3), (식품명_1:1), (식품명_1:-1)</t>
   </si>
   <si>
-    <t>(영양소명_1,3), (영양소명_3,1), (영양소명_2,-1)</t>
+    <t>(영양소명_1:3), (영양소명_3:1), (영양소명_2:-1)</t>
   </si>
   <si>
-    <t>(식품명_3,-1), (식품명_6,2), (식품명_2,-1)</t>
+    <t>(식품명_3:-1), (식품명_6:2), (식품명_2:-1)</t>
   </si>
   <si>
-    <t>(영양소명_5,3), (영양소명_1,1), (영양소명_3,-1)</t>
+    <t>(영양소명_5:3), (영양소명_1:1), (영양소명_3:-1)</t>
   </si>
   <si>
-    <t>(식품명_5,3), (식품명_7,1), (식품명_3,-1)</t>
+    <t>(식품명_5:3), (식품명_7:1), (식품명_3:-1)</t>
   </si>
   <si>
-    <t>(영양소명_2,3), (영양소명_2,1), (영양소명_3,1)</t>
+    <t>(영양소명_2:3), (영양소명_2:1), (영양소명_3:1)</t>
   </si>
   <si>
-    <t>(식품명_1,3), (식품명_1,1), (식품명_3,-1)</t>
+    <t>(식품명_1:3), (식품명_1:1), (식품명_3:-1)</t>
   </si>
   <si>
-    <t>(영양소명_3,3), (영양소명_5,1), (영양소명_2,3)</t>
+    <t>(영양소명_3:3), (영양소명_5:1), (영양소명_2:3)</t>
   </si>
   <si>
-    <t>(식품명_2,3), (식품명_4,1), (식품명_3,-1)</t>
+    <t>(식품명_2:3), (식품명_4:1), (식품명_3:-1)</t>
   </si>
   <si>
-    <t>(영양소명_1,4), (영양소명_4,1), (영양소명_2,5)</t>
+    <t>(영양소명_1:4), (영양소명_4:1), (영양소명_2:5)</t>
   </si>
   <si>
-    <t>(식품명_3,3), (식품명_1,1), (식품명_1,-1)</t>
+    <t>(식품명_3:3), (식품명_1:1), (식품명_1:-1)</t>
   </si>
   <si>
-    <t>(영양소명_2,5), (영양소명_1,1), (영양소명_2,-1)</t>
+    <t>(영양소명_2:5), (영양소명_1:1), (영양소명_2:-1)</t>
   </si>
   <si>
-    <t>(식품명_1,3), (식품명_6,1), (식품명_1,-1)</t>
+    <t>(식품명_1:3), (식품명_6:1), (식품명_1:-1)</t>
   </si>
   <si>
-    <t>(영양소명_2,1), (영양소명_1,2), (영양소명_1,2)</t>
+    <t>(영양소명_2:1), (영양소명_1:2), (영양소명_1:2)</t>
   </si>
   <si>
-    <t>(식품명_1,3), (식품명_5,1), (식품명_1,3)</t>
+    <t>(식품명_1:3), (식품명_5:1), (식품명_1:3)</t>
   </si>
   <si>
-    <t>(영양소명_1,4), (영양소명_1,3), (영양소명_1,3)</t>
+    <t>(영양소명_1:4), (영양소명_1:3), (영양소명_1:3)</t>
   </si>
   <si>
-    <t>(식품명_1,3), (식품명_4,1), (식품명_1,2)</t>
+    <t>(식품명_1:3), (식품명_4:1), (식품명_1:2)</t>
   </si>
   <si>
-    <t>(영양소명_2,-1), (영양소명_1,4), (영양소명_1,3)</t>
+    <t>(영양소명_2:-1), (영양소명_1:4), (영양소명_1:3)</t>
   </si>
   <si>
-    <t>(식품명_2,1), (식품명_4,2), (식품명_1,-1)</t>
+    <t>(식품명_2:1), (식품명_4:2), (식품명_1:-1)</t>
   </si>
   <si>
-    <t>(영양소명_2,-3), (영양소명_1,-3), (영양소명_1,5)</t>
+    <t>(영양소명_2:-3), (영양소명_1:-3), (영양소명_1:5)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -166,7 +166,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
